--- a/datasets/Female.xlsx
+++ b/datasets/Female.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AE316"/>
+  <dimension ref="A1:AC316"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -575,16 +575,6 @@
           <t>폐결핵흉부질환</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
-          <t>골다공증</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>종합결과</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -686,12 +676,6 @@
           <t>정상</t>
         </is>
       </c>
-      <c r="AD2" t="inlineStr"/>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>정B</t>
-        </is>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -776,7 +760,9 @@
       <c r="X3" t="n">
         <v>0.7</v>
       </c>
-      <c r="Y3" t="inlineStr"/>
+      <c r="Y3" t="n">
+        <v>87</v>
+      </c>
       <c r="Z3" t="n">
         <v>17</v>
       </c>
@@ -789,12 +775,6 @@
       <c r="AC3" t="inlineStr">
         <is>
           <t>정상</t>
-        </is>
-      </c>
-      <c r="AD3" t="inlineStr"/>
-      <c r="AE3" t="inlineStr">
-        <is>
-          <t>정B</t>
         </is>
       </c>
     </row>
@@ -881,7 +861,9 @@
       <c r="X4" t="n">
         <v>0.8</v>
       </c>
-      <c r="Y4" t="inlineStr"/>
+      <c r="Y4" t="n">
+        <v>103</v>
+      </c>
       <c r="Z4" t="n">
         <v>17</v>
       </c>
@@ -894,12 +876,6 @@
       <c r="AC4" t="inlineStr">
         <is>
           <t>정상</t>
-        </is>
-      </c>
-      <c r="AD4" t="inlineStr"/>
-      <c r="AE4" t="inlineStr">
-        <is>
-          <t>정B</t>
         </is>
       </c>
     </row>
@@ -1003,12 +979,6 @@
           <t>정상</t>
         </is>
       </c>
-      <c r="AD5" t="inlineStr"/>
-      <c r="AE5" t="inlineStr">
-        <is>
-          <t>정B</t>
-        </is>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -1110,12 +1080,6 @@
           <t>정상</t>
         </is>
       </c>
-      <c r="AD6" t="inlineStr"/>
-      <c r="AE6" t="inlineStr">
-        <is>
-          <t>정B</t>
-        </is>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -1217,12 +1181,6 @@
           <t>정상</t>
         </is>
       </c>
-      <c r="AD7" t="inlineStr"/>
-      <c r="AE7" t="inlineStr">
-        <is>
-          <t>정B</t>
-        </is>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -1324,12 +1282,6 @@
           <t>정상</t>
         </is>
       </c>
-      <c r="AD8" t="inlineStr"/>
-      <c r="AE8" t="inlineStr">
-        <is>
-          <t>정A</t>
-        </is>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -1431,12 +1383,6 @@
           <t>정상</t>
         </is>
       </c>
-      <c r="AD9" t="inlineStr"/>
-      <c r="AE9" t="inlineStr">
-        <is>
-          <t>정B</t>
-        </is>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -1536,12 +1482,6 @@
       <c r="AC10" t="inlineStr">
         <is>
           <t>정상</t>
-        </is>
-      </c>
-      <c r="AD10" t="inlineStr"/>
-      <c r="AE10" t="inlineStr">
-        <is>
-          <t>정A</t>
         </is>
       </c>
     </row>
@@ -1637,12 +1577,6 @@
           <t>정상</t>
         </is>
       </c>
-      <c r="AD11" t="inlineStr"/>
-      <c r="AE11" t="inlineStr">
-        <is>
-          <t>정B</t>
-        </is>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -1736,12 +1670,6 @@
           <t>정상</t>
         </is>
       </c>
-      <c r="AD12" t="inlineStr"/>
-      <c r="AE12" t="inlineStr">
-        <is>
-          <t>정B</t>
-        </is>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -1843,12 +1771,6 @@
           <t>정상</t>
         </is>
       </c>
-      <c r="AD13" t="inlineStr"/>
-      <c r="AE13" t="inlineStr">
-        <is>
-          <t>정B</t>
-        </is>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -1950,12 +1872,6 @@
           <t>비활동성</t>
         </is>
       </c>
-      <c r="AD14" t="inlineStr"/>
-      <c r="AE14" t="inlineStr">
-        <is>
-          <t>정B</t>
-        </is>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -2040,7 +1956,9 @@
       <c r="X15" t="n">
         <v>0.7</v>
       </c>
-      <c r="Y15" t="inlineStr"/>
+      <c r="Y15" t="n">
+        <v>84</v>
+      </c>
       <c r="Z15" t="n">
         <v>22</v>
       </c>
@@ -2053,12 +1971,6 @@
       <c r="AC15" t="inlineStr">
         <is>
           <t>미촬영</t>
-        </is>
-      </c>
-      <c r="AD15" t="inlineStr"/>
-      <c r="AE15" t="inlineStr">
-        <is>
-          <t>정A</t>
         </is>
       </c>
     </row>
@@ -2145,7 +2057,9 @@
       <c r="X16" t="n">
         <v>0.8</v>
       </c>
-      <c r="Y16" t="inlineStr"/>
+      <c r="Y16" t="n">
+        <v>101</v>
+      </c>
       <c r="Z16" t="n">
         <v>13</v>
       </c>
@@ -2158,12 +2072,6 @@
       <c r="AC16" t="inlineStr">
         <is>
           <t>비활동성</t>
-        </is>
-      </c>
-      <c r="AD16" t="inlineStr"/>
-      <c r="AE16" t="inlineStr">
-        <is>
-          <t>정B</t>
         </is>
       </c>
     </row>
@@ -2267,12 +2175,6 @@
           <t>정상</t>
         </is>
       </c>
-      <c r="AD17" t="inlineStr"/>
-      <c r="AE17" t="inlineStr">
-        <is>
-          <t>정A</t>
-        </is>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -2374,12 +2276,6 @@
           <t>미촬영</t>
         </is>
       </c>
-      <c r="AD18" t="inlineStr"/>
-      <c r="AE18" t="inlineStr">
-        <is>
-          <t>정A</t>
-        </is>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -2481,12 +2377,6 @@
           <t>정상</t>
         </is>
       </c>
-      <c r="AD19" t="inlineStr"/>
-      <c r="AE19" t="inlineStr">
-        <is>
-          <t>의심</t>
-        </is>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -2588,12 +2478,6 @@
           <t>정상</t>
         </is>
       </c>
-      <c r="AD20" t="inlineStr"/>
-      <c r="AE20" t="inlineStr">
-        <is>
-          <t>정A</t>
-        </is>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -2695,12 +2579,6 @@
           <t>정상</t>
         </is>
       </c>
-      <c r="AD21" t="inlineStr"/>
-      <c r="AE21" t="inlineStr">
-        <is>
-          <t>정A</t>
-        </is>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -2802,12 +2680,6 @@
           <t>정상</t>
         </is>
       </c>
-      <c r="AD22" t="inlineStr"/>
-      <c r="AE22" t="inlineStr">
-        <is>
-          <t>정A</t>
-        </is>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -2907,12 +2779,6 @@
       <c r="AC23" t="inlineStr">
         <is>
           <t>비활동성</t>
-        </is>
-      </c>
-      <c r="AD23" t="inlineStr"/>
-      <c r="AE23" t="inlineStr">
-        <is>
-          <t>정A</t>
         </is>
       </c>
     </row>
@@ -3008,12 +2874,6 @@
           <t>정상</t>
         </is>
       </c>
-      <c r="AD24" t="inlineStr"/>
-      <c r="AE24" t="inlineStr">
-        <is>
-          <t>정A</t>
-        </is>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -3115,12 +2975,6 @@
           <t>정상</t>
         </is>
       </c>
-      <c r="AD25" t="inlineStr"/>
-      <c r="AE25" t="inlineStr">
-        <is>
-          <t>주의</t>
-        </is>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -3205,7 +3059,9 @@
       <c r="X26" t="n">
         <v>0.9</v>
       </c>
-      <c r="Y26" t="inlineStr"/>
+      <c r="Y26" t="n">
+        <v>112</v>
+      </c>
       <c r="Z26" t="n">
         <v>19</v>
       </c>
@@ -3218,12 +3074,6 @@
       <c r="AC26" t="inlineStr">
         <is>
           <t>정상</t>
-        </is>
-      </c>
-      <c r="AD26" t="inlineStr"/>
-      <c r="AE26" t="inlineStr">
-        <is>
-          <t>정B</t>
         </is>
       </c>
     </row>
@@ -3310,7 +3160,9 @@
       <c r="X27" t="n">
         <v>0.8</v>
       </c>
-      <c r="Y27" t="inlineStr"/>
+      <c r="Y27" t="n">
+        <v>94</v>
+      </c>
       <c r="Z27" t="n">
         <v>37</v>
       </c>
@@ -3323,12 +3175,6 @@
       <c r="AC27" t="inlineStr">
         <is>
           <t>정상</t>
-        </is>
-      </c>
-      <c r="AD27" t="inlineStr"/>
-      <c r="AE27" t="inlineStr">
-        <is>
-          <t>의심</t>
         </is>
       </c>
     </row>
@@ -3432,12 +3278,6 @@
           <t>정상</t>
         </is>
       </c>
-      <c r="AD28" t="inlineStr"/>
-      <c r="AE28" t="inlineStr">
-        <is>
-          <t>의심</t>
-        </is>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -3539,12 +3379,6 @@
           <t>정상</t>
         </is>
       </c>
-      <c r="AD29" t="inlineStr"/>
-      <c r="AE29" t="inlineStr">
-        <is>
-          <t>유질</t>
-        </is>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -3646,12 +3480,6 @@
           <t>정상</t>
         </is>
       </c>
-      <c r="AD30" t="inlineStr"/>
-      <c r="AE30" t="inlineStr">
-        <is>
-          <t>정B</t>
-        </is>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -3753,12 +3581,6 @@
           <t>정상</t>
         </is>
       </c>
-      <c r="AD31" t="inlineStr"/>
-      <c r="AE31" t="inlineStr">
-        <is>
-          <t>의심</t>
-        </is>
-      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -3860,12 +3682,6 @@
           <t>정상</t>
         </is>
       </c>
-      <c r="AD32" t="inlineStr"/>
-      <c r="AE32" t="inlineStr">
-        <is>
-          <t>유질</t>
-        </is>
-      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -3965,12 +3781,6 @@
       <c r="AC33" t="inlineStr">
         <is>
           <t>정상</t>
-        </is>
-      </c>
-      <c r="AD33" t="inlineStr"/>
-      <c r="AE33" t="inlineStr">
-        <is>
-          <t>유질</t>
         </is>
       </c>
     </row>
@@ -4066,12 +3876,6 @@
           <t>정상</t>
         </is>
       </c>
-      <c r="AD34" t="inlineStr"/>
-      <c r="AE34" t="inlineStr">
-        <is>
-          <t>의심</t>
-        </is>
-      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -4173,12 +3977,6 @@
           <t>정상</t>
         </is>
       </c>
-      <c r="AD35" t="inlineStr"/>
-      <c r="AE35" t="inlineStr">
-        <is>
-          <t>정B</t>
-        </is>
-      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -4263,7 +4061,9 @@
       <c r="X36" t="n">
         <v>0.8</v>
       </c>
-      <c r="Y36" t="inlineStr"/>
+      <c r="Y36" t="n">
+        <v>86</v>
+      </c>
       <c r="Z36" t="n">
         <v>20</v>
       </c>
@@ -4276,12 +4076,6 @@
       <c r="AC36" t="inlineStr">
         <is>
           <t>정상</t>
-        </is>
-      </c>
-      <c r="AD36" t="inlineStr"/>
-      <c r="AE36" t="inlineStr">
-        <is>
-          <t>정B</t>
         </is>
       </c>
     </row>
@@ -4368,7 +4162,9 @@
       <c r="X37" t="n">
         <v>0.8</v>
       </c>
-      <c r="Y37" t="inlineStr"/>
+      <c r="Y37" t="n">
+        <v>84</v>
+      </c>
       <c r="Z37" t="n">
         <v>23</v>
       </c>
@@ -4381,12 +4177,6 @@
       <c r="AC37" t="inlineStr">
         <is>
           <t>정상</t>
-        </is>
-      </c>
-      <c r="AD37" t="inlineStr"/>
-      <c r="AE37" t="inlineStr">
-        <is>
-          <t>의심</t>
         </is>
       </c>
     </row>
@@ -4490,12 +4280,6 @@
           <t>정상</t>
         </is>
       </c>
-      <c r="AD38" t="inlineStr"/>
-      <c r="AE38" t="inlineStr">
-        <is>
-          <t>정A</t>
-        </is>
-      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -4597,12 +4381,6 @@
           <t>정상</t>
         </is>
       </c>
-      <c r="AD39" t="inlineStr"/>
-      <c r="AE39" t="inlineStr">
-        <is>
-          <t>정A</t>
-        </is>
-      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -4704,12 +4482,6 @@
           <t>정상</t>
         </is>
       </c>
-      <c r="AD40" t="inlineStr"/>
-      <c r="AE40" t="inlineStr">
-        <is>
-          <t>정B</t>
-        </is>
-      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -4811,12 +4583,6 @@
           <t>정상</t>
         </is>
       </c>
-      <c r="AD41" t="inlineStr"/>
-      <c r="AE41" t="inlineStr">
-        <is>
-          <t>정A</t>
-        </is>
-      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -4918,12 +4684,6 @@
           <t>정상</t>
         </is>
       </c>
-      <c r="AD42" t="inlineStr"/>
-      <c r="AE42" t="inlineStr">
-        <is>
-          <t>정B</t>
-        </is>
-      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -5023,12 +4783,6 @@
       <c r="AC43" t="inlineStr">
         <is>
           <t>정상</t>
-        </is>
-      </c>
-      <c r="AD43" t="inlineStr"/>
-      <c r="AE43" t="inlineStr">
-        <is>
-          <t>의심</t>
         </is>
       </c>
     </row>
@@ -5124,12 +4878,6 @@
           <t>정상</t>
         </is>
       </c>
-      <c r="AD44" t="inlineStr"/>
-      <c r="AE44" t="inlineStr">
-        <is>
-          <t>의심</t>
-        </is>
-      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -5231,12 +4979,6 @@
           <t>정상</t>
         </is>
       </c>
-      <c r="AD45" t="inlineStr"/>
-      <c r="AE45" t="inlineStr">
-        <is>
-          <t>정B</t>
-        </is>
-      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -5321,7 +5063,9 @@
       <c r="X46" t="n">
         <v>8.1</v>
       </c>
-      <c r="Y46" t="inlineStr"/>
+      <c r="Y46" t="n">
+        <v>1390</v>
+      </c>
       <c r="Z46" t="n">
         <v>20</v>
       </c>
@@ -5334,12 +5078,6 @@
       <c r="AC46" t="inlineStr">
         <is>
           <t>정상</t>
-        </is>
-      </c>
-      <c r="AD46" t="inlineStr"/>
-      <c r="AE46" t="inlineStr">
-        <is>
-          <t>정B</t>
         </is>
       </c>
     </row>
@@ -5426,7 +5164,9 @@
       <c r="X47" t="n">
         <v>0.8</v>
       </c>
-      <c r="Y47" t="inlineStr"/>
+      <c r="Y47" t="n">
+        <v>111</v>
+      </c>
       <c r="Z47" t="n">
         <v>21</v>
       </c>
@@ -5439,12 +5179,6 @@
       <c r="AC47" t="inlineStr">
         <is>
           <t>정상</t>
-        </is>
-      </c>
-      <c r="AD47" t="inlineStr"/>
-      <c r="AE47" t="inlineStr">
-        <is>
-          <t>의심</t>
         </is>
       </c>
     </row>
@@ -5548,12 +5282,6 @@
           <t>정상</t>
         </is>
       </c>
-      <c r="AD48" t="inlineStr"/>
-      <c r="AE48" t="inlineStr">
-        <is>
-          <t>정B</t>
-        </is>
-      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -5655,12 +5383,6 @@
           <t>정상</t>
         </is>
       </c>
-      <c r="AD49" t="inlineStr"/>
-      <c r="AE49" t="inlineStr">
-        <is>
-          <t>정B</t>
-        </is>
-      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -5762,12 +5484,6 @@
           <t>정상</t>
         </is>
       </c>
-      <c r="AD50" t="inlineStr"/>
-      <c r="AE50" t="inlineStr">
-        <is>
-          <t>정B</t>
-        </is>
-      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -5869,12 +5585,6 @@
           <t>정상</t>
         </is>
       </c>
-      <c r="AD51" t="inlineStr"/>
-      <c r="AE51" t="inlineStr">
-        <is>
-          <t>의심</t>
-        </is>
-      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -5976,12 +5686,6 @@
           <t>정상</t>
         </is>
       </c>
-      <c r="AD52" t="inlineStr"/>
-      <c r="AE52" t="inlineStr">
-        <is>
-          <t>의심</t>
-        </is>
-      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -6081,12 +5785,6 @@
       <c r="AC53" t="inlineStr">
         <is>
           <t>정상</t>
-        </is>
-      </c>
-      <c r="AD53" t="inlineStr"/>
-      <c r="AE53" t="inlineStr">
-        <is>
-          <t>의심</t>
         </is>
       </c>
     </row>
@@ -6182,12 +5880,6 @@
           <t>정상</t>
         </is>
       </c>
-      <c r="AD54" t="inlineStr"/>
-      <c r="AE54" t="inlineStr">
-        <is>
-          <t>의심</t>
-        </is>
-      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -6281,12 +5973,6 @@
           <t>정상</t>
         </is>
       </c>
-      <c r="AD55" t="inlineStr"/>
-      <c r="AE55" t="inlineStr">
-        <is>
-          <t>의심</t>
-        </is>
-      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -6388,12 +6074,6 @@
           <t>정상</t>
         </is>
       </c>
-      <c r="AD56" t="inlineStr"/>
-      <c r="AE56" t="inlineStr">
-        <is>
-          <t>정A</t>
-        </is>
-      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -6478,7 +6158,9 @@
       <c r="X57" t="n">
         <v>0.6</v>
       </c>
-      <c r="Y57" t="inlineStr"/>
+      <c r="Y57" t="n">
+        <v>45</v>
+      </c>
       <c r="Z57" t="n">
         <v>18</v>
       </c>
@@ -6491,12 +6173,6 @@
       <c r="AC57" t="inlineStr">
         <is>
           <t>정상</t>
-        </is>
-      </c>
-      <c r="AD57" t="inlineStr"/>
-      <c r="AE57" t="inlineStr">
-        <is>
-          <t>정A</t>
         </is>
       </c>
     </row>
@@ -6583,7 +6259,9 @@
       <c r="X58" t="n">
         <v>0.5</v>
       </c>
-      <c r="Y58" t="inlineStr"/>
+      <c r="Y58" t="n">
+        <v>26</v>
+      </c>
       <c r="Z58" t="n">
         <v>16</v>
       </c>
@@ -6596,12 +6274,6 @@
       <c r="AC58" t="inlineStr">
         <is>
           <t>정상</t>
-        </is>
-      </c>
-      <c r="AD58" t="inlineStr"/>
-      <c r="AE58" t="inlineStr">
-        <is>
-          <t>정B</t>
         </is>
       </c>
     </row>
@@ -6705,12 +6377,6 @@
           <t>정상</t>
         </is>
       </c>
-      <c r="AD59" t="inlineStr"/>
-      <c r="AE59" t="inlineStr">
-        <is>
-          <t>정A</t>
-        </is>
-      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -6812,12 +6478,6 @@
           <t>정상</t>
         </is>
       </c>
-      <c r="AD60" t="inlineStr"/>
-      <c r="AE60" t="inlineStr">
-        <is>
-          <t>정A</t>
-        </is>
-      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -6919,12 +6579,6 @@
           <t>정상</t>
         </is>
       </c>
-      <c r="AD61" t="inlineStr"/>
-      <c r="AE61" t="inlineStr">
-        <is>
-          <t>정B</t>
-        </is>
-      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -7026,12 +6680,6 @@
           <t>정상</t>
         </is>
       </c>
-      <c r="AD62" t="inlineStr"/>
-      <c r="AE62" t="inlineStr">
-        <is>
-          <t>정A</t>
-        </is>
-      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -7133,12 +6781,6 @@
           <t>정상</t>
         </is>
       </c>
-      <c r="AD63" t="inlineStr"/>
-      <c r="AE63" t="inlineStr">
-        <is>
-          <t>정A</t>
-        </is>
-      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -7238,12 +6880,6 @@
       <c r="AC64" t="inlineStr">
         <is>
           <t>정상</t>
-        </is>
-      </c>
-      <c r="AD64" t="inlineStr"/>
-      <c r="AE64" t="inlineStr">
-        <is>
-          <t>정A</t>
         </is>
       </c>
     </row>
@@ -7339,12 +6975,6 @@
           <t>정상</t>
         </is>
       </c>
-      <c r="AD65" t="inlineStr"/>
-      <c r="AE65" t="inlineStr">
-        <is>
-          <t>정B</t>
-        </is>
-      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -7429,7 +7059,9 @@
       <c r="X66" t="n">
         <v>0.6</v>
       </c>
-      <c r="Y66" t="inlineStr"/>
+      <c r="Y66" t="n">
+        <v>66</v>
+      </c>
       <c r="Z66" t="n">
         <v>16</v>
       </c>
@@ -7442,12 +7074,6 @@
       <c r="AC66" t="inlineStr">
         <is>
           <t>비결핵성질환</t>
-        </is>
-      </c>
-      <c r="AD66" t="inlineStr"/>
-      <c r="AE66" t="inlineStr">
-        <is>
-          <t>의심</t>
         </is>
       </c>
     </row>
@@ -7534,7 +7160,9 @@
       <c r="X67" t="n">
         <v>4.9</v>
       </c>
-      <c r="Y67" t="inlineStr"/>
+      <c r="Y67" t="n">
+        <v>817</v>
+      </c>
       <c r="Z67" t="n">
         <v>20</v>
       </c>
@@ -7547,12 +7175,6 @@
       <c r="AC67" t="inlineStr">
         <is>
           <t>정상</t>
-        </is>
-      </c>
-      <c r="AD67" t="inlineStr"/>
-      <c r="AE67" t="inlineStr">
-        <is>
-          <t>정A</t>
         </is>
       </c>
     </row>
@@ -7656,12 +7278,6 @@
           <t>미촬영</t>
         </is>
       </c>
-      <c r="AD68" t="inlineStr"/>
-      <c r="AE68" t="inlineStr">
-        <is>
-          <t>정A</t>
-        </is>
-      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -7763,12 +7379,6 @@
           <t>정상</t>
         </is>
       </c>
-      <c r="AD69" t="inlineStr"/>
-      <c r="AE69" t="inlineStr">
-        <is>
-          <t>정A</t>
-        </is>
-      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -7870,12 +7480,6 @@
           <t>정상</t>
         </is>
       </c>
-      <c r="AD70" t="inlineStr"/>
-      <c r="AE70" t="inlineStr">
-        <is>
-          <t>정A</t>
-        </is>
-      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -7977,12 +7581,6 @@
           <t>정상</t>
         </is>
       </c>
-      <c r="AD71" t="inlineStr"/>
-      <c r="AE71" t="inlineStr">
-        <is>
-          <t>정B</t>
-        </is>
-      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -8084,12 +7682,6 @@
           <t>정상</t>
         </is>
       </c>
-      <c r="AD72" t="inlineStr"/>
-      <c r="AE72" t="inlineStr">
-        <is>
-          <t>정A</t>
-        </is>
-      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -8189,12 +7781,6 @@
       <c r="AC73" t="inlineStr">
         <is>
           <t>정상</t>
-        </is>
-      </c>
-      <c r="AD73" t="inlineStr"/>
-      <c r="AE73" t="inlineStr">
-        <is>
-          <t>정A</t>
         </is>
       </c>
     </row>
@@ -8290,12 +7876,6 @@
           <t>정상</t>
         </is>
       </c>
-      <c r="AD74" t="inlineStr"/>
-      <c r="AE74" t="inlineStr">
-        <is>
-          <t>정A</t>
-        </is>
-      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -8389,12 +7969,6 @@
           <t>정상</t>
         </is>
       </c>
-      <c r="AD75" t="inlineStr"/>
-      <c r="AE75" t="inlineStr">
-        <is>
-          <t>정A</t>
-        </is>
-      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -8496,12 +8070,6 @@
           <t>정상</t>
         </is>
       </c>
-      <c r="AD76" t="inlineStr"/>
-      <c r="AE76" t="inlineStr">
-        <is>
-          <t>정B</t>
-        </is>
-      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -8586,7 +8154,9 @@
       <c r="X77" t="n">
         <v>0.8</v>
       </c>
-      <c r="Y77" t="inlineStr"/>
+      <c r="Y77" t="n">
+        <v>101</v>
+      </c>
       <c r="Z77" t="n">
         <v>16</v>
       </c>
@@ -8599,12 +8169,6 @@
       <c r="AC77" t="inlineStr">
         <is>
           <t>정상</t>
-        </is>
-      </c>
-      <c r="AD77" t="inlineStr"/>
-      <c r="AE77" t="inlineStr">
-        <is>
-          <t>정A</t>
         </is>
       </c>
     </row>
@@ -8691,7 +8255,9 @@
       <c r="X78" t="n">
         <v>0.7</v>
       </c>
-      <c r="Y78" t="inlineStr"/>
+      <c r="Y78" t="n">
+        <v>82</v>
+      </c>
       <c r="Z78" t="n">
         <v>17</v>
       </c>
@@ -8704,12 +8270,6 @@
       <c r="AC78" t="inlineStr">
         <is>
           <t>정상</t>
-        </is>
-      </c>
-      <c r="AD78" t="inlineStr"/>
-      <c r="AE78" t="inlineStr">
-        <is>
-          <t>정B</t>
         </is>
       </c>
     </row>
@@ -8813,12 +8373,6 @@
           <t>정상</t>
         </is>
       </c>
-      <c r="AD79" t="inlineStr"/>
-      <c r="AE79" t="inlineStr">
-        <is>
-          <t>정B</t>
-        </is>
-      </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -8920,12 +8474,6 @@
           <t>정상</t>
         </is>
       </c>
-      <c r="AD80" t="inlineStr"/>
-      <c r="AE80" t="inlineStr">
-        <is>
-          <t>정B</t>
-        </is>
-      </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -9027,12 +8575,6 @@
           <t>정상</t>
         </is>
       </c>
-      <c r="AD81" t="inlineStr"/>
-      <c r="AE81" t="inlineStr">
-        <is>
-          <t>의심</t>
-        </is>
-      </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -9134,12 +8676,6 @@
           <t>정상</t>
         </is>
       </c>
-      <c r="AD82" t="inlineStr"/>
-      <c r="AE82" t="inlineStr">
-        <is>
-          <t>의심</t>
-        </is>
-      </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -9241,12 +8777,6 @@
           <t>정상</t>
         </is>
       </c>
-      <c r="AD83" t="inlineStr"/>
-      <c r="AE83" t="inlineStr">
-        <is>
-          <t>정B</t>
-        </is>
-      </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -9346,12 +8876,6 @@
       <c r="AC84" t="inlineStr">
         <is>
           <t>정상</t>
-        </is>
-      </c>
-      <c r="AD84" t="inlineStr"/>
-      <c r="AE84" t="inlineStr">
-        <is>
-          <t>정B</t>
         </is>
       </c>
     </row>
@@ -9447,12 +8971,6 @@
           <t>정상</t>
         </is>
       </c>
-      <c r="AD85" t="inlineStr"/>
-      <c r="AE85" t="inlineStr">
-        <is>
-          <t>정B</t>
-        </is>
-      </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -9546,12 +9064,6 @@
           <t>정상</t>
         </is>
       </c>
-      <c r="AD86" t="inlineStr"/>
-      <c r="AE86" t="inlineStr">
-        <is>
-          <t>의심</t>
-        </is>
-      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -9636,7 +9148,9 @@
       <c r="X87" t="n">
         <v>0.5</v>
       </c>
-      <c r="Y87" t="inlineStr"/>
+      <c r="Y87" t="n">
+        <v>35</v>
+      </c>
       <c r="Z87" t="n">
         <v>19</v>
       </c>
@@ -9649,12 +9163,6 @@
       <c r="AC87" t="inlineStr">
         <is>
           <t>정상</t>
-        </is>
-      </c>
-      <c r="AD87" t="inlineStr"/>
-      <c r="AE87" t="inlineStr">
-        <is>
-          <t>정B</t>
         </is>
       </c>
     </row>
@@ -9758,12 +9266,6 @@
           <t>정상</t>
         </is>
       </c>
-      <c r="AD88" t="inlineStr"/>
-      <c r="AE88" t="inlineStr">
-        <is>
-          <t>정A</t>
-        </is>
-      </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -9865,12 +9367,6 @@
           <t>정상</t>
         </is>
       </c>
-      <c r="AD89" t="inlineStr"/>
-      <c r="AE89" t="inlineStr">
-        <is>
-          <t>정B</t>
-        </is>
-      </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -9972,12 +9468,6 @@
           <t>정상</t>
         </is>
       </c>
-      <c r="AD90" t="inlineStr"/>
-      <c r="AE90" t="inlineStr">
-        <is>
-          <t>정A</t>
-        </is>
-      </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -10079,12 +9569,6 @@
           <t>정상</t>
         </is>
       </c>
-      <c r="AD91" t="inlineStr"/>
-      <c r="AE91" t="inlineStr">
-        <is>
-          <t>정B</t>
-        </is>
-      </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -10186,12 +9670,6 @@
           <t>정상</t>
         </is>
       </c>
-      <c r="AD92" t="inlineStr"/>
-      <c r="AE92" t="inlineStr">
-        <is>
-          <t>정A</t>
-        </is>
-      </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -10291,12 +9769,6 @@
       <c r="AC93" t="inlineStr">
         <is>
           <t>정상</t>
-        </is>
-      </c>
-      <c r="AD93" t="inlineStr"/>
-      <c r="AE93" t="inlineStr">
-        <is>
-          <t>정B</t>
         </is>
       </c>
     </row>
@@ -10392,12 +9864,6 @@
           <t>정상</t>
         </is>
       </c>
-      <c r="AD94" t="inlineStr"/>
-      <c r="AE94" t="inlineStr">
-        <is>
-          <t>정A</t>
-        </is>
-      </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -10497,12 +9963,6 @@
       <c r="AC95" t="inlineStr">
         <is>
           <t>정상</t>
-        </is>
-      </c>
-      <c r="AD95" t="inlineStr"/>
-      <c r="AE95" t="inlineStr">
-        <is>
-          <t>정B</t>
         </is>
       </c>
     </row>
@@ -10598,12 +10058,6 @@
           <t>정상</t>
         </is>
       </c>
-      <c r="AD96" t="inlineStr"/>
-      <c r="AE96" t="inlineStr">
-        <is>
-          <t>정B</t>
-        </is>
-      </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -10688,7 +10142,9 @@
       <c r="X97" t="n">
         <v>0.8</v>
       </c>
-      <c r="Y97" t="inlineStr"/>
+      <c r="Y97" t="n">
+        <v>102</v>
+      </c>
       <c r="Z97" t="n">
         <v>27</v>
       </c>
@@ -10701,12 +10157,6 @@
       <c r="AC97" t="inlineStr">
         <is>
           <t>정상</t>
-        </is>
-      </c>
-      <c r="AD97" t="inlineStr"/>
-      <c r="AE97" t="inlineStr">
-        <is>
-          <t>정B</t>
         </is>
       </c>
     </row>
@@ -10793,7 +10243,9 @@
       <c r="X98" t="n">
         <v>0.8</v>
       </c>
-      <c r="Y98" t="inlineStr"/>
+      <c r="Y98" t="n">
+        <v>101</v>
+      </c>
       <c r="Z98" t="n">
         <v>24</v>
       </c>
@@ -10806,12 +10258,6 @@
       <c r="AC98" t="inlineStr">
         <is>
           <t>정상</t>
-        </is>
-      </c>
-      <c r="AD98" t="inlineStr"/>
-      <c r="AE98" t="inlineStr">
-        <is>
-          <t>정B</t>
         </is>
       </c>
     </row>
@@ -10915,12 +10361,6 @@
           <t>정상</t>
         </is>
       </c>
-      <c r="AD99" t="inlineStr"/>
-      <c r="AE99" t="inlineStr">
-        <is>
-          <t>정B</t>
-        </is>
-      </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -11022,12 +10462,6 @@
           <t>정상</t>
         </is>
       </c>
-      <c r="AD100" t="inlineStr"/>
-      <c r="AE100" t="inlineStr">
-        <is>
-          <t>정B</t>
-        </is>
-      </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -11129,12 +10563,6 @@
           <t>정상</t>
         </is>
       </c>
-      <c r="AD101" t="inlineStr"/>
-      <c r="AE101" t="inlineStr">
-        <is>
-          <t>정A</t>
-        </is>
-      </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -11236,12 +10664,6 @@
           <t>정상</t>
         </is>
       </c>
-      <c r="AD102" t="inlineStr"/>
-      <c r="AE102" t="inlineStr">
-        <is>
-          <t>의심</t>
-        </is>
-      </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -11343,12 +10765,6 @@
           <t>정상</t>
         </is>
       </c>
-      <c r="AD103" t="inlineStr"/>
-      <c r="AE103" t="inlineStr">
-        <is>
-          <t>정B</t>
-        </is>
-      </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -11450,12 +10866,6 @@
           <t>정상</t>
         </is>
       </c>
-      <c r="AD104" t="inlineStr"/>
-      <c r="AE104" t="inlineStr">
-        <is>
-          <t>의심</t>
-        </is>
-      </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -11555,12 +10965,6 @@
       <c r="AC105" t="inlineStr">
         <is>
           <t>정상</t>
-        </is>
-      </c>
-      <c r="AD105" t="inlineStr"/>
-      <c r="AE105" t="inlineStr">
-        <is>
-          <t>정B</t>
         </is>
       </c>
     </row>
@@ -11656,12 +11060,6 @@
           <t>정상</t>
         </is>
       </c>
-      <c r="AD106" t="inlineStr"/>
-      <c r="AE106" t="inlineStr">
-        <is>
-          <t>의심</t>
-        </is>
-      </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -11746,7 +11144,9 @@
       <c r="X107" t="n">
         <v>0.7</v>
       </c>
-      <c r="Y107" t="inlineStr"/>
+      <c r="Y107" t="n">
+        <v>68</v>
+      </c>
       <c r="Z107" t="n">
         <v>19</v>
       </c>
@@ -11759,12 +11159,6 @@
       <c r="AC107" t="inlineStr">
         <is>
           <t>정상</t>
-        </is>
-      </c>
-      <c r="AD107" t="inlineStr"/>
-      <c r="AE107" t="inlineStr">
-        <is>
-          <t>정B</t>
         </is>
       </c>
     </row>
@@ -11851,7 +11245,9 @@
       <c r="X108" t="n">
         <v>0.6</v>
       </c>
-      <c r="Y108" t="inlineStr"/>
+      <c r="Y108" t="n">
+        <v>49</v>
+      </c>
       <c r="Z108" t="n">
         <v>22</v>
       </c>
@@ -11864,12 +11260,6 @@
       <c r="AC108" t="inlineStr">
         <is>
           <t>정상</t>
-        </is>
-      </c>
-      <c r="AD108" t="inlineStr"/>
-      <c r="AE108" t="inlineStr">
-        <is>
-          <t>정B</t>
         </is>
       </c>
     </row>
@@ -11973,12 +11363,6 @@
           <t>정상</t>
         </is>
       </c>
-      <c r="AD109" t="inlineStr"/>
-      <c r="AE109" t="inlineStr">
-        <is>
-          <t>정B</t>
-        </is>
-      </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -12080,12 +11464,6 @@
           <t>정상</t>
         </is>
       </c>
-      <c r="AD110" t="inlineStr"/>
-      <c r="AE110" t="inlineStr">
-        <is>
-          <t>정B</t>
-        </is>
-      </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -12187,12 +11565,6 @@
           <t>정상</t>
         </is>
       </c>
-      <c r="AD111" t="inlineStr"/>
-      <c r="AE111" t="inlineStr">
-        <is>
-          <t>정B</t>
-        </is>
-      </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -12294,12 +11666,6 @@
           <t>정상</t>
         </is>
       </c>
-      <c r="AD112" t="inlineStr"/>
-      <c r="AE112" t="inlineStr">
-        <is>
-          <t>정B</t>
-        </is>
-      </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -12401,12 +11767,6 @@
           <t>정상</t>
         </is>
       </c>
-      <c r="AD113" t="inlineStr"/>
-      <c r="AE113" t="inlineStr">
-        <is>
-          <t>정B</t>
-        </is>
-      </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -12506,12 +11866,6 @@
       <c r="AC114" t="inlineStr">
         <is>
           <t>정상</t>
-        </is>
-      </c>
-      <c r="AD114" t="inlineStr"/>
-      <c r="AE114" t="inlineStr">
-        <is>
-          <t>정B</t>
         </is>
       </c>
     </row>
@@ -12607,12 +11961,6 @@
           <t>정상</t>
         </is>
       </c>
-      <c r="AD115" t="inlineStr"/>
-      <c r="AE115" t="inlineStr">
-        <is>
-          <t>정B</t>
-        </is>
-      </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -12706,12 +12054,6 @@
           <t>정상</t>
         </is>
       </c>
-      <c r="AD116" t="inlineStr"/>
-      <c r="AE116" t="inlineStr">
-        <is>
-          <t>정B</t>
-        </is>
-      </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -12796,7 +12138,9 @@
       <c r="X117" t="n">
         <v>0.8</v>
       </c>
-      <c r="Y117" t="inlineStr"/>
+      <c r="Y117" t="n">
+        <v>94</v>
+      </c>
       <c r="Z117" t="n">
         <v>15</v>
       </c>
@@ -12809,12 +12153,6 @@
       <c r="AC117" t="inlineStr">
         <is>
           <t>정상</t>
-        </is>
-      </c>
-      <c r="AD117" t="inlineStr"/>
-      <c r="AE117" t="inlineStr">
-        <is>
-          <t>정B</t>
         </is>
       </c>
     </row>
@@ -12901,7 +12239,9 @@
       <c r="X118" t="n">
         <v>0.7</v>
       </c>
-      <c r="Y118" t="inlineStr"/>
+      <c r="Y118" t="n">
+        <v>75</v>
+      </c>
       <c r="Z118" t="n">
         <v>17</v>
       </c>
@@ -12914,12 +12254,6 @@
       <c r="AC118" t="inlineStr">
         <is>
           <t>정상</t>
-        </is>
-      </c>
-      <c r="AD118" t="inlineStr"/>
-      <c r="AE118" t="inlineStr">
-        <is>
-          <t>정A</t>
         </is>
       </c>
     </row>
@@ -13023,12 +12357,6 @@
           <t>정상</t>
         </is>
       </c>
-      <c r="AD119" t="inlineStr"/>
-      <c r="AE119" t="inlineStr">
-        <is>
-          <t>정B</t>
-        </is>
-      </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -13130,12 +12458,6 @@
           <t>정상</t>
         </is>
       </c>
-      <c r="AD120" t="inlineStr"/>
-      <c r="AE120" t="inlineStr">
-        <is>
-          <t>정B</t>
-        </is>
-      </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -13237,12 +12559,6 @@
           <t>정상</t>
         </is>
       </c>
-      <c r="AD121" t="inlineStr"/>
-      <c r="AE121" t="inlineStr">
-        <is>
-          <t>정B</t>
-        </is>
-      </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -13344,12 +12660,6 @@
           <t>정상</t>
         </is>
       </c>
-      <c r="AD122" t="inlineStr"/>
-      <c r="AE122" t="inlineStr">
-        <is>
-          <t>정B</t>
-        </is>
-      </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -13451,12 +12761,6 @@
           <t>정상</t>
         </is>
       </c>
-      <c r="AD123" t="inlineStr"/>
-      <c r="AE123" t="inlineStr">
-        <is>
-          <t>정B</t>
-        </is>
-      </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -13556,12 +12860,6 @@
       <c r="AC124" t="inlineStr">
         <is>
           <t>정상</t>
-        </is>
-      </c>
-      <c r="AD124" t="inlineStr"/>
-      <c r="AE124" t="inlineStr">
-        <is>
-          <t>정B</t>
         </is>
       </c>
     </row>
@@ -13657,12 +12955,6 @@
           <t>정상</t>
         </is>
       </c>
-      <c r="AD125" t="inlineStr"/>
-      <c r="AE125" t="inlineStr">
-        <is>
-          <t>정A</t>
-        </is>
-      </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -13764,12 +13056,6 @@
           <t>정상</t>
         </is>
       </c>
-      <c r="AD126" t="inlineStr"/>
-      <c r="AE126" t="inlineStr">
-        <is>
-          <t>정B</t>
-        </is>
-      </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -13854,7 +13140,9 @@
       <c r="X127" t="n">
         <v>0.6</v>
       </c>
-      <c r="Y127" t="inlineStr"/>
+      <c r="Y127" t="n">
+        <v>78</v>
+      </c>
       <c r="Z127" t="n">
         <v>18</v>
       </c>
@@ -13867,12 +13155,6 @@
       <c r="AC127" t="inlineStr">
         <is>
           <t>정상</t>
-        </is>
-      </c>
-      <c r="AD127" t="inlineStr"/>
-      <c r="AE127" t="inlineStr">
-        <is>
-          <t>정B</t>
         </is>
       </c>
     </row>
@@ -13959,7 +13241,9 @@
       <c r="X128" t="n">
         <v>0.6</v>
       </c>
-      <c r="Y128" t="inlineStr"/>
+      <c r="Y128" t="n">
+        <v>77</v>
+      </c>
       <c r="Z128" t="n">
         <v>22</v>
       </c>
@@ -13972,12 +13256,6 @@
       <c r="AC128" t="inlineStr">
         <is>
           <t>정상</t>
-        </is>
-      </c>
-      <c r="AD128" t="inlineStr"/>
-      <c r="AE128" t="inlineStr">
-        <is>
-          <t>정B</t>
         </is>
       </c>
     </row>
@@ -14081,12 +13359,6 @@
           <t>정상</t>
         </is>
       </c>
-      <c r="AD129" t="inlineStr"/>
-      <c r="AE129" t="inlineStr">
-        <is>
-          <t>정B</t>
-        </is>
-      </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -14188,12 +13460,6 @@
           <t>정상</t>
         </is>
       </c>
-      <c r="AD130" t="inlineStr"/>
-      <c r="AE130" t="inlineStr">
-        <is>
-          <t>정B</t>
-        </is>
-      </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -14295,12 +13561,6 @@
           <t>정상</t>
         </is>
       </c>
-      <c r="AD131" t="inlineStr"/>
-      <c r="AE131" t="inlineStr">
-        <is>
-          <t>정B</t>
-        </is>
-      </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -14402,12 +13662,6 @@
           <t>정상</t>
         </is>
       </c>
-      <c r="AD132" t="inlineStr"/>
-      <c r="AE132" t="inlineStr">
-        <is>
-          <t>정B</t>
-        </is>
-      </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -14509,12 +13763,6 @@
           <t>정상</t>
         </is>
       </c>
-      <c r="AD133" t="inlineStr"/>
-      <c r="AE133" t="inlineStr">
-        <is>
-          <t>정B</t>
-        </is>
-      </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -14610,12 +13858,6 @@
       <c r="AC134" t="inlineStr">
         <is>
           <t>정상</t>
-        </is>
-      </c>
-      <c r="AD134" t="inlineStr"/>
-      <c r="AE134" t="inlineStr">
-        <is>
-          <t>정A</t>
         </is>
       </c>
     </row>
@@ -14711,12 +13953,6 @@
           <t>정상</t>
         </is>
       </c>
-      <c r="AD135" t="inlineStr"/>
-      <c r="AE135" t="inlineStr">
-        <is>
-          <t>정B</t>
-        </is>
-      </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -14810,12 +14046,6 @@
           <t>정상</t>
         </is>
       </c>
-      <c r="AD136" t="inlineStr"/>
-      <c r="AE136" t="inlineStr">
-        <is>
-          <t>정A</t>
-        </is>
-      </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -14900,7 +14130,9 @@
       <c r="X137" t="n">
         <v>0.7</v>
       </c>
-      <c r="Y137" t="inlineStr"/>
+      <c r="Y137" t="n">
+        <v>76</v>
+      </c>
       <c r="Z137" t="n">
         <v>19</v>
       </c>
@@ -14913,12 +14145,6 @@
       <c r="AC137" t="inlineStr">
         <is>
           <t>정상</t>
-        </is>
-      </c>
-      <c r="AD137" t="inlineStr"/>
-      <c r="AE137" t="inlineStr">
-        <is>
-          <t>정A</t>
         </is>
       </c>
     </row>
@@ -15005,7 +14231,9 @@
       <c r="X138" t="n">
         <v>0.8</v>
       </c>
-      <c r="Y138" t="inlineStr"/>
+      <c r="Y138" t="n">
+        <v>93</v>
+      </c>
       <c r="Z138" t="n">
         <v>25</v>
       </c>
@@ -15018,12 +14246,6 @@
       <c r="AC138" t="inlineStr">
         <is>
           <t>정상</t>
-        </is>
-      </c>
-      <c r="AD138" t="inlineStr"/>
-      <c r="AE138" t="inlineStr">
-        <is>
-          <t>정B</t>
         </is>
       </c>
     </row>
@@ -15127,12 +14349,6 @@
           <t>정상</t>
         </is>
       </c>
-      <c r="AD139" t="inlineStr"/>
-      <c r="AE139" t="inlineStr">
-        <is>
-          <t>정B</t>
-        </is>
-      </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -15234,12 +14450,6 @@
           <t>순환기계질환</t>
         </is>
       </c>
-      <c r="AD140" t="inlineStr"/>
-      <c r="AE140" t="inlineStr">
-        <is>
-          <t>의심</t>
-        </is>
-      </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -15341,12 +14551,6 @@
           <t>정상</t>
         </is>
       </c>
-      <c r="AD141" t="inlineStr"/>
-      <c r="AE141" t="inlineStr">
-        <is>
-          <t>정A</t>
-        </is>
-      </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -15448,12 +14652,6 @@
           <t>정상</t>
         </is>
       </c>
-      <c r="AD142" t="inlineStr"/>
-      <c r="AE142" t="inlineStr">
-        <is>
-          <t>정A</t>
-        </is>
-      </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -15555,12 +14753,6 @@
           <t>정상</t>
         </is>
       </c>
-      <c r="AD143" t="inlineStr"/>
-      <c r="AE143" t="inlineStr">
-        <is>
-          <t>의심</t>
-        </is>
-      </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -15660,12 +14852,6 @@
       <c r="AC144" t="inlineStr">
         <is>
           <t>정상</t>
-        </is>
-      </c>
-      <c r="AD144" t="inlineStr"/>
-      <c r="AE144" t="inlineStr">
-        <is>
-          <t>정A</t>
         </is>
       </c>
     </row>
@@ -15761,12 +14947,6 @@
           <t>정상</t>
         </is>
       </c>
-      <c r="AD145" t="inlineStr"/>
-      <c r="AE145" t="inlineStr">
-        <is>
-          <t>정B</t>
-        </is>
-      </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -15868,12 +15048,6 @@
           <t>정상</t>
         </is>
       </c>
-      <c r="AD146" t="inlineStr"/>
-      <c r="AE146" t="inlineStr">
-        <is>
-          <t>정B</t>
-        </is>
-      </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -15958,7 +15132,9 @@
       <c r="X147" t="n">
         <v>0.9</v>
       </c>
-      <c r="Y147" t="inlineStr"/>
+      <c r="Y147" t="n">
+        <v>124</v>
+      </c>
       <c r="Z147" t="n">
         <v>17</v>
       </c>
@@ -15971,12 +15147,6 @@
       <c r="AC147" t="inlineStr">
         <is>
           <t>정상</t>
-        </is>
-      </c>
-      <c r="AD147" t="inlineStr"/>
-      <c r="AE147" t="inlineStr">
-        <is>
-          <t>정B</t>
         </is>
       </c>
     </row>
@@ -16063,7 +15233,9 @@
       <c r="X148" t="n">
         <v>0.9</v>
       </c>
-      <c r="Y148" t="inlineStr"/>
+      <c r="Y148" t="n">
+        <v>123</v>
+      </c>
       <c r="Z148" t="n">
         <v>14</v>
       </c>
@@ -16076,12 +15248,6 @@
       <c r="AC148" t="inlineStr">
         <is>
           <t>정상</t>
-        </is>
-      </c>
-      <c r="AD148" t="inlineStr"/>
-      <c r="AE148" t="inlineStr">
-        <is>
-          <t>정B</t>
         </is>
       </c>
     </row>
@@ -16185,12 +15351,6 @@
           <t>정상</t>
         </is>
       </c>
-      <c r="AD149" t="inlineStr"/>
-      <c r="AE149" t="inlineStr">
-        <is>
-          <t>정A</t>
-        </is>
-      </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -16292,12 +15452,6 @@
           <t>정상</t>
         </is>
       </c>
-      <c r="AD150" t="inlineStr"/>
-      <c r="AE150" t="inlineStr">
-        <is>
-          <t>정B</t>
-        </is>
-      </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -16399,12 +15553,6 @@
           <t>정상</t>
         </is>
       </c>
-      <c r="AD151" t="inlineStr"/>
-      <c r="AE151" t="inlineStr">
-        <is>
-          <t>정B</t>
-        </is>
-      </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -16506,12 +15654,6 @@
           <t>정상</t>
         </is>
       </c>
-      <c r="AD152" t="inlineStr"/>
-      <c r="AE152" t="inlineStr">
-        <is>
-          <t>정B</t>
-        </is>
-      </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -16613,12 +15755,6 @@
           <t>정상</t>
         </is>
       </c>
-      <c r="AD153" t="inlineStr"/>
-      <c r="AE153" t="inlineStr">
-        <is>
-          <t>정B</t>
-        </is>
-      </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -16718,12 +15854,6 @@
       <c r="AC154" t="inlineStr">
         <is>
           <t>정상</t>
-        </is>
-      </c>
-      <c r="AD154" t="inlineStr"/>
-      <c r="AE154" t="inlineStr">
-        <is>
-          <t>의심</t>
         </is>
       </c>
     </row>
@@ -16819,12 +15949,6 @@
           <t>정상</t>
         </is>
       </c>
-      <c r="AD155" t="inlineStr"/>
-      <c r="AE155" t="inlineStr">
-        <is>
-          <t>정A</t>
-        </is>
-      </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -16918,12 +16042,6 @@
           <t>정상</t>
         </is>
       </c>
-      <c r="AD156" t="inlineStr"/>
-      <c r="AE156" t="inlineStr">
-        <is>
-          <t>정B</t>
-        </is>
-      </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -17008,7 +16126,9 @@
       <c r="X157" t="n">
         <v>0.8</v>
       </c>
-      <c r="Y157" t="inlineStr"/>
+      <c r="Y157" t="n">
+        <v>116</v>
+      </c>
       <c r="Z157" t="n">
         <v>15</v>
       </c>
@@ -17021,12 +16141,6 @@
       <c r="AC157" t="inlineStr">
         <is>
           <t>정상</t>
-        </is>
-      </c>
-      <c r="AD157" t="inlineStr"/>
-      <c r="AE157" t="inlineStr">
-        <is>
-          <t>정B</t>
         </is>
       </c>
     </row>
@@ -17113,7 +16227,9 @@
       <c r="X158" t="n">
         <v>0.8</v>
       </c>
-      <c r="Y158" t="inlineStr"/>
+      <c r="Y158" t="n">
+        <v>114</v>
+      </c>
       <c r="Z158" t="n">
         <v>14</v>
       </c>
@@ -17126,12 +16242,6 @@
       <c r="AC158" t="inlineStr">
         <is>
           <t>정상</t>
-        </is>
-      </c>
-      <c r="AD158" t="inlineStr"/>
-      <c r="AE158" t="inlineStr">
-        <is>
-          <t>정B</t>
         </is>
       </c>
     </row>
@@ -17235,12 +16345,6 @@
           <t>정상</t>
         </is>
       </c>
-      <c r="AD159" t="inlineStr"/>
-      <c r="AE159" t="inlineStr">
-        <is>
-          <t>정B</t>
-        </is>
-      </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -17342,12 +16446,6 @@
           <t>정상</t>
         </is>
       </c>
-      <c r="AD160" t="inlineStr"/>
-      <c r="AE160" t="inlineStr">
-        <is>
-          <t>정A</t>
-        </is>
-      </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -17449,12 +16547,6 @@
           <t>정상</t>
         </is>
       </c>
-      <c r="AD161" t="inlineStr"/>
-      <c r="AE161" t="inlineStr">
-        <is>
-          <t>정A</t>
-        </is>
-      </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -17556,12 +16648,6 @@
           <t>정상</t>
         </is>
       </c>
-      <c r="AD162" t="inlineStr"/>
-      <c r="AE162" t="inlineStr">
-        <is>
-          <t>정B</t>
-        </is>
-      </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -17663,12 +16749,6 @@
           <t>정상</t>
         </is>
       </c>
-      <c r="AD163" t="inlineStr"/>
-      <c r="AE163" t="inlineStr">
-        <is>
-          <t>정B</t>
-        </is>
-      </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -17768,12 +16848,6 @@
       <c r="AC164" t="inlineStr">
         <is>
           <t>정상</t>
-        </is>
-      </c>
-      <c r="AD164" t="inlineStr"/>
-      <c r="AE164" t="inlineStr">
-        <is>
-          <t>정A</t>
         </is>
       </c>
     </row>
@@ -17869,12 +16943,6 @@
           <t>정상</t>
         </is>
       </c>
-      <c r="AD165" t="inlineStr"/>
-      <c r="AE165" t="inlineStr">
-        <is>
-          <t>정B</t>
-        </is>
-      </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -17968,12 +17036,6 @@
           <t>정상</t>
         </is>
       </c>
-      <c r="AD166" t="inlineStr"/>
-      <c r="AE166" t="inlineStr">
-        <is>
-          <t>정B</t>
-        </is>
-      </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -18058,7 +17120,9 @@
       <c r="X167" t="n">
         <v>0.9</v>
       </c>
-      <c r="Y167" t="inlineStr"/>
+      <c r="Y167" t="n">
+        <v>122</v>
+      </c>
       <c r="Z167" t="n">
         <v>30</v>
       </c>
@@ -18071,12 +17135,6 @@
       <c r="AC167" t="inlineStr">
         <is>
           <t>정상</t>
-        </is>
-      </c>
-      <c r="AD167" t="inlineStr"/>
-      <c r="AE167" t="inlineStr">
-        <is>
-          <t>의심</t>
         </is>
       </c>
     </row>
@@ -18163,7 +17221,9 @@
       <c r="X168" t="n">
         <v>0.8</v>
       </c>
-      <c r="Y168" t="inlineStr"/>
+      <c r="Y168" t="n">
+        <v>103</v>
+      </c>
       <c r="Z168" t="n">
         <v>22</v>
       </c>
@@ -18176,12 +17236,6 @@
       <c r="AC168" t="inlineStr">
         <is>
           <t>정상</t>
-        </is>
-      </c>
-      <c r="AD168" t="inlineStr"/>
-      <c r="AE168" t="inlineStr">
-        <is>
-          <t>의심</t>
         </is>
       </c>
     </row>
@@ -18285,12 +17339,6 @@
           <t>정상</t>
         </is>
       </c>
-      <c r="AD169" t="inlineStr"/>
-      <c r="AE169" t="inlineStr">
-        <is>
-          <t>의심</t>
-        </is>
-      </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -18392,12 +17440,6 @@
           <t>정상</t>
         </is>
       </c>
-      <c r="AD170" t="inlineStr"/>
-      <c r="AE170" t="inlineStr">
-        <is>
-          <t>의심</t>
-        </is>
-      </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -18499,12 +17541,6 @@
           <t>정상</t>
         </is>
       </c>
-      <c r="AD171" t="inlineStr"/>
-      <c r="AE171" t="inlineStr">
-        <is>
-          <t>의심</t>
-        </is>
-      </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -18606,12 +17642,6 @@
           <t>정상</t>
         </is>
       </c>
-      <c r="AD172" t="inlineStr"/>
-      <c r="AE172" t="inlineStr">
-        <is>
-          <t>정B</t>
-        </is>
-      </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -18713,12 +17743,6 @@
           <t>정상</t>
         </is>
       </c>
-      <c r="AD173" t="inlineStr"/>
-      <c r="AE173" t="inlineStr">
-        <is>
-          <t>의심</t>
-        </is>
-      </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -18818,12 +17842,6 @@
       <c r="AC174" t="inlineStr">
         <is>
           <t>정상</t>
-        </is>
-      </c>
-      <c r="AD174" t="inlineStr"/>
-      <c r="AE174" t="inlineStr">
-        <is>
-          <t>의심</t>
         </is>
       </c>
     </row>
@@ -18919,12 +17937,6 @@
           <t>정상</t>
         </is>
       </c>
-      <c r="AD175" t="inlineStr"/>
-      <c r="AE175" t="inlineStr">
-        <is>
-          <t>유질</t>
-        </is>
-      </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -19018,12 +18030,6 @@
           <t>정상</t>
         </is>
       </c>
-      <c r="AD176" t="inlineStr"/>
-      <c r="AE176" t="inlineStr">
-        <is>
-          <t>의심</t>
-        </is>
-      </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -19108,7 +18114,9 @@
       <c r="X177" t="n">
         <v>0.6</v>
       </c>
-      <c r="Y177" t="inlineStr"/>
+      <c r="Y177" t="n">
+        <v>59</v>
+      </c>
       <c r="Z177" t="n">
         <v>15</v>
       </c>
@@ -19121,12 +18129,6 @@
       <c r="AC177" t="inlineStr">
         <is>
           <t>정상</t>
-        </is>
-      </c>
-      <c r="AD177" t="inlineStr"/>
-      <c r="AE177" t="inlineStr">
-        <is>
-          <t>정B</t>
         </is>
       </c>
     </row>
@@ -19213,7 +18215,9 @@
       <c r="X178" t="n">
         <v>0.5</v>
       </c>
-      <c r="Y178" t="inlineStr"/>
+      <c r="Y178" t="n">
+        <v>40</v>
+      </c>
       <c r="Z178" t="n">
         <v>18</v>
       </c>
@@ -19226,12 +18230,6 @@
       <c r="AC178" t="inlineStr">
         <is>
           <t>정상</t>
-        </is>
-      </c>
-      <c r="AD178" t="inlineStr"/>
-      <c r="AE178" t="inlineStr">
-        <is>
-          <t>의심</t>
         </is>
       </c>
     </row>
@@ -19335,12 +18333,6 @@
           <t>정상</t>
         </is>
       </c>
-      <c r="AD179" t="inlineStr"/>
-      <c r="AE179" t="inlineStr">
-        <is>
-          <t>의심</t>
-        </is>
-      </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -19442,12 +18434,6 @@
           <t>정상</t>
         </is>
       </c>
-      <c r="AD180" t="inlineStr"/>
-      <c r="AE180" t="inlineStr">
-        <is>
-          <t>의심</t>
-        </is>
-      </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -19549,12 +18535,6 @@
           <t>정상</t>
         </is>
       </c>
-      <c r="AD181" t="inlineStr"/>
-      <c r="AE181" t="inlineStr">
-        <is>
-          <t>정B</t>
-        </is>
-      </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -19656,12 +18636,6 @@
           <t>정상</t>
         </is>
       </c>
-      <c r="AD182" t="inlineStr"/>
-      <c r="AE182" t="inlineStr">
-        <is>
-          <t>정B</t>
-        </is>
-      </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -19763,12 +18737,6 @@
           <t>정상</t>
         </is>
       </c>
-      <c r="AD183" t="inlineStr"/>
-      <c r="AE183" t="inlineStr">
-        <is>
-          <t>의심</t>
-        </is>
-      </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -19868,12 +18836,6 @@
       <c r="AC184" t="inlineStr">
         <is>
           <t>정상</t>
-        </is>
-      </c>
-      <c r="AD184" t="inlineStr"/>
-      <c r="AE184" t="inlineStr">
-        <is>
-          <t>의심</t>
         </is>
       </c>
     </row>
@@ -19969,12 +18931,6 @@
           <t>정상</t>
         </is>
       </c>
-      <c r="AD185" t="inlineStr"/>
-      <c r="AE185" t="inlineStr">
-        <is>
-          <t>정A</t>
-        </is>
-      </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -20076,12 +19032,6 @@
           <t>정상</t>
         </is>
       </c>
-      <c r="AD186" t="inlineStr"/>
-      <c r="AE186" t="inlineStr">
-        <is>
-          <t>정B</t>
-        </is>
-      </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -20166,7 +19116,9 @@
       <c r="X187" t="n">
         <v>0.7</v>
       </c>
-      <c r="Y187" t="inlineStr"/>
+      <c r="Y187" t="n">
+        <v>73</v>
+      </c>
       <c r="Z187" t="n">
         <v>14</v>
       </c>
@@ -20179,12 +19131,6 @@
       <c r="AC187" t="inlineStr">
         <is>
           <t>정상</t>
-        </is>
-      </c>
-      <c r="AD187" t="inlineStr"/>
-      <c r="AE187" t="inlineStr">
-        <is>
-          <t>의심</t>
         </is>
       </c>
     </row>
@@ -20271,7 +19217,9 @@
       <c r="X188" t="n">
         <v>0.8</v>
       </c>
-      <c r="Y188" t="inlineStr"/>
+      <c r="Y188" t="n">
+        <v>89</v>
+      </c>
       <c r="Z188" t="n">
         <v>20</v>
       </c>
@@ -20284,12 +19232,6 @@
       <c r="AC188" t="inlineStr">
         <is>
           <t>정상</t>
-        </is>
-      </c>
-      <c r="AD188" t="inlineStr"/>
-      <c r="AE188" t="inlineStr">
-        <is>
-          <t>정B</t>
         </is>
       </c>
     </row>
@@ -20393,12 +19335,6 @@
           <t>정상</t>
         </is>
       </c>
-      <c r="AD189" t="inlineStr"/>
-      <c r="AE189" t="inlineStr">
-        <is>
-          <t>정B</t>
-        </is>
-      </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -20500,12 +19436,6 @@
           <t>정상</t>
         </is>
       </c>
-      <c r="AD190" t="inlineStr"/>
-      <c r="AE190" t="inlineStr">
-        <is>
-          <t>정B</t>
-        </is>
-      </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -20607,12 +19537,6 @@
           <t>정상</t>
         </is>
       </c>
-      <c r="AD191" t="inlineStr"/>
-      <c r="AE191" t="inlineStr">
-        <is>
-          <t>정B</t>
-        </is>
-      </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -20714,12 +19638,6 @@
           <t>정상</t>
         </is>
       </c>
-      <c r="AD192" t="inlineStr"/>
-      <c r="AE192" t="inlineStr">
-        <is>
-          <t>정B</t>
-        </is>
-      </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -20821,12 +19739,6 @@
           <t>정상</t>
         </is>
       </c>
-      <c r="AD193" t="inlineStr"/>
-      <c r="AE193" t="inlineStr">
-        <is>
-          <t>의심</t>
-        </is>
-      </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -20926,12 +19838,6 @@
       <c r="AC194" t="inlineStr">
         <is>
           <t>정상</t>
-        </is>
-      </c>
-      <c r="AD194" t="inlineStr"/>
-      <c r="AE194" t="inlineStr">
-        <is>
-          <t>의심</t>
         </is>
       </c>
     </row>
@@ -21027,12 +19933,6 @@
           <t>정상</t>
         </is>
       </c>
-      <c r="AD195" t="inlineStr"/>
-      <c r="AE195" t="inlineStr">
-        <is>
-          <t>정A</t>
-        </is>
-      </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -21126,12 +20026,6 @@
           <t>정상</t>
         </is>
       </c>
-      <c r="AD196" t="inlineStr"/>
-      <c r="AE196" t="inlineStr">
-        <is>
-          <t>정A</t>
-        </is>
-      </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -21216,7 +20110,9 @@
       <c r="X197" t="n">
         <v>1.1</v>
       </c>
-      <c r="Y197" t="inlineStr"/>
+      <c r="Y197" t="n">
+        <v>144</v>
+      </c>
       <c r="Z197" t="n">
         <v>30</v>
       </c>
@@ -21229,12 +20125,6 @@
       <c r="AC197" t="inlineStr">
         <is>
           <t>정상</t>
-        </is>
-      </c>
-      <c r="AD197" t="inlineStr"/>
-      <c r="AE197" t="inlineStr">
-        <is>
-          <t>정A</t>
         </is>
       </c>
     </row>
@@ -21321,7 +20211,9 @@
       <c r="X198" t="n">
         <v>0.7</v>
       </c>
-      <c r="Y198" t="inlineStr"/>
+      <c r="Y198" t="n">
+        <v>73</v>
+      </c>
       <c r="Z198" t="n">
         <v>33</v>
       </c>
@@ -21334,12 +20226,6 @@
       <c r="AC198" t="inlineStr">
         <is>
           <t>정상</t>
-        </is>
-      </c>
-      <c r="AD198" t="inlineStr"/>
-      <c r="AE198" t="inlineStr">
-        <is>
-          <t>정A</t>
         </is>
       </c>
     </row>
@@ -21443,12 +20329,6 @@
           <t>정상</t>
         </is>
       </c>
-      <c r="AD199" t="inlineStr"/>
-      <c r="AE199" t="inlineStr">
-        <is>
-          <t>정B</t>
-        </is>
-      </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -21550,12 +20430,6 @@
           <t>정상</t>
         </is>
       </c>
-      <c r="AD200" t="inlineStr"/>
-      <c r="AE200" t="inlineStr">
-        <is>
-          <t>정B</t>
-        </is>
-      </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -21657,12 +20531,6 @@
           <t>정상</t>
         </is>
       </c>
-      <c r="AD201" t="inlineStr"/>
-      <c r="AE201" t="inlineStr">
-        <is>
-          <t>정A</t>
-        </is>
-      </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -21764,12 +20632,6 @@
           <t>미촬영</t>
         </is>
       </c>
-      <c r="AD202" t="inlineStr"/>
-      <c r="AE202" t="inlineStr">
-        <is>
-          <t>정A</t>
-        </is>
-      </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -21871,12 +20733,6 @@
           <t>미촬영</t>
         </is>
       </c>
-      <c r="AD203" t="inlineStr"/>
-      <c r="AE203" t="inlineStr">
-        <is>
-          <t>정B</t>
-        </is>
-      </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -21976,12 +20832,6 @@
       <c r="AC204" t="inlineStr">
         <is>
           <t>정상</t>
-        </is>
-      </c>
-      <c r="AD204" t="inlineStr"/>
-      <c r="AE204" t="inlineStr">
-        <is>
-          <t>정B</t>
         </is>
       </c>
     </row>
@@ -22077,12 +20927,6 @@
           <t>정상</t>
         </is>
       </c>
-      <c r="AD205" t="inlineStr"/>
-      <c r="AE205" t="inlineStr">
-        <is>
-          <t>의심</t>
-        </is>
-      </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -22176,12 +21020,6 @@
           <t>정상</t>
         </is>
       </c>
-      <c r="AD206" t="inlineStr"/>
-      <c r="AE206" t="inlineStr">
-        <is>
-          <t>정B</t>
-        </is>
-      </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -22266,7 +21104,9 @@
       <c r="X207" t="n">
         <v>1.1</v>
       </c>
-      <c r="Y207" t="inlineStr"/>
+      <c r="Y207" t="n">
+        <v>160</v>
+      </c>
       <c r="Z207" t="n">
         <v>21</v>
       </c>
@@ -22279,12 +21119,6 @@
       <c r="AC207" t="inlineStr">
         <is>
           <t>정상</t>
-        </is>
-      </c>
-      <c r="AD207" t="inlineStr"/>
-      <c r="AE207" t="inlineStr">
-        <is>
-          <t>의심</t>
         </is>
       </c>
     </row>
@@ -22371,7 +21205,9 @@
       <c r="X208" t="n">
         <v>0.9</v>
       </c>
-      <c r="Y208" t="inlineStr"/>
+      <c r="Y208" t="n">
+        <v>124</v>
+      </c>
       <c r="Z208" t="n">
         <v>18</v>
       </c>
@@ -22384,12 +21220,6 @@
       <c r="AC208" t="inlineStr">
         <is>
           <t>정상</t>
-        </is>
-      </c>
-      <c r="AD208" t="inlineStr"/>
-      <c r="AE208" t="inlineStr">
-        <is>
-          <t>정B</t>
         </is>
       </c>
     </row>
@@ -22493,12 +21323,6 @@
           <t>정상</t>
         </is>
       </c>
-      <c r="AD209" t="inlineStr"/>
-      <c r="AE209" t="inlineStr">
-        <is>
-          <t>의심</t>
-        </is>
-      </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -22600,12 +21424,6 @@
           <t>정상</t>
         </is>
       </c>
-      <c r="AD210" t="inlineStr"/>
-      <c r="AE210" t="inlineStr">
-        <is>
-          <t>정B</t>
-        </is>
-      </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -22707,12 +21525,6 @@
           <t>정상</t>
         </is>
       </c>
-      <c r="AD211" t="inlineStr"/>
-      <c r="AE211" t="inlineStr">
-        <is>
-          <t>정B</t>
-        </is>
-      </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -22814,12 +21626,6 @@
           <t>정상</t>
         </is>
       </c>
-      <c r="AD212" t="inlineStr"/>
-      <c r="AE212" t="inlineStr">
-        <is>
-          <t>정B</t>
-        </is>
-      </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -22921,12 +21727,6 @@
           <t>정상</t>
         </is>
       </c>
-      <c r="AD213" t="inlineStr"/>
-      <c r="AE213" t="inlineStr">
-        <is>
-          <t>정B</t>
-        </is>
-      </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -23026,12 +21826,6 @@
       <c r="AC214" t="inlineStr">
         <is>
           <t>정상</t>
-        </is>
-      </c>
-      <c r="AD214" t="inlineStr"/>
-      <c r="AE214" t="inlineStr">
-        <is>
-          <t>정B</t>
         </is>
       </c>
     </row>
@@ -23127,12 +21921,6 @@
           <t>정상</t>
         </is>
       </c>
-      <c r="AD215" t="inlineStr"/>
-      <c r="AE215" t="inlineStr">
-        <is>
-          <t>정A</t>
-        </is>
-      </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -23226,12 +22014,6 @@
           <t>정상</t>
         </is>
       </c>
-      <c r="AD216" t="inlineStr"/>
-      <c r="AE216" t="inlineStr">
-        <is>
-          <t>정A</t>
-        </is>
-      </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -23316,7 +22098,9 @@
       <c r="X217" t="n">
         <v>1</v>
       </c>
-      <c r="Y217" t="inlineStr"/>
+      <c r="Y217" t="n">
+        <v>140</v>
+      </c>
       <c r="Z217" t="n">
         <v>27</v>
       </c>
@@ -23329,12 +22113,6 @@
       <c r="AC217" t="inlineStr">
         <is>
           <t>정상</t>
-        </is>
-      </c>
-      <c r="AD217" t="inlineStr"/>
-      <c r="AE217" t="inlineStr">
-        <is>
-          <t>정B</t>
         </is>
       </c>
     </row>
@@ -23421,7 +22199,9 @@
       <c r="X218" t="n">
         <v>0.6</v>
       </c>
-      <c r="Y218" t="inlineStr"/>
+      <c r="Y218" t="n">
+        <v>69</v>
+      </c>
       <c r="Z218" t="n">
         <v>20</v>
       </c>
@@ -23434,12 +22214,6 @@
       <c r="AC218" t="inlineStr">
         <is>
           <t>정상</t>
-        </is>
-      </c>
-      <c r="AD218" t="inlineStr"/>
-      <c r="AE218" t="inlineStr">
-        <is>
-          <t>정B</t>
         </is>
       </c>
     </row>
@@ -23543,12 +22317,6 @@
           <t>미촬영</t>
         </is>
       </c>
-      <c r="AD219" t="inlineStr"/>
-      <c r="AE219" t="inlineStr">
-        <is>
-          <t>정B</t>
-        </is>
-      </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -23650,12 +22418,6 @@
           <t>정상</t>
         </is>
       </c>
-      <c r="AD220" t="inlineStr"/>
-      <c r="AE220" t="inlineStr">
-        <is>
-          <t>정B</t>
-        </is>
-      </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -23757,12 +22519,6 @@
           <t>미촬영</t>
         </is>
       </c>
-      <c r="AD221" t="inlineStr"/>
-      <c r="AE221" t="inlineStr">
-        <is>
-          <t>정B</t>
-        </is>
-      </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -23864,12 +22620,6 @@
           <t>미촬영</t>
         </is>
       </c>
-      <c r="AD222" t="inlineStr"/>
-      <c r="AE222" t="inlineStr">
-        <is>
-          <t>정B</t>
-        </is>
-      </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -23971,12 +22721,6 @@
           <t>미촬영</t>
         </is>
       </c>
-      <c r="AD223" t="inlineStr"/>
-      <c r="AE223" t="inlineStr">
-        <is>
-          <t>정B</t>
-        </is>
-      </c>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -24076,12 +22820,6 @@
       <c r="AC224" t="inlineStr">
         <is>
           <t>정상</t>
-        </is>
-      </c>
-      <c r="AD224" t="inlineStr"/>
-      <c r="AE224" t="inlineStr">
-        <is>
-          <t>정B</t>
         </is>
       </c>
     </row>
@@ -24177,12 +22915,6 @@
           <t>정상</t>
         </is>
       </c>
-      <c r="AD225" t="inlineStr"/>
-      <c r="AE225" t="inlineStr">
-        <is>
-          <t>정B</t>
-        </is>
-      </c>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -24276,12 +23008,6 @@
           <t>정상</t>
         </is>
       </c>
-      <c r="AD226" t="inlineStr"/>
-      <c r="AE226" t="inlineStr">
-        <is>
-          <t>정B</t>
-        </is>
-      </c>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -24366,7 +23092,9 @@
       <c r="X227" t="n">
         <v>0.7</v>
       </c>
-      <c r="Y227" t="inlineStr"/>
+      <c r="Y227" t="n">
+        <v>77</v>
+      </c>
       <c r="Z227" t="n">
         <v>15</v>
       </c>
@@ -24379,12 +23107,6 @@
       <c r="AC227" t="inlineStr">
         <is>
           <t>정상</t>
-        </is>
-      </c>
-      <c r="AD227" t="inlineStr"/>
-      <c r="AE227" t="inlineStr">
-        <is>
-          <t>정B</t>
         </is>
       </c>
     </row>
@@ -24488,12 +23210,6 @@
           <t>정상</t>
         </is>
       </c>
-      <c r="AD228" t="inlineStr"/>
-      <c r="AE228" t="inlineStr">
-        <is>
-          <t>정B</t>
-        </is>
-      </c>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -24595,12 +23311,6 @@
           <t>정상</t>
         </is>
       </c>
-      <c r="AD229" t="inlineStr"/>
-      <c r="AE229" t="inlineStr">
-        <is>
-          <t>정B</t>
-        </is>
-      </c>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -24702,12 +23412,6 @@
           <t>정상</t>
         </is>
       </c>
-      <c r="AD230" t="inlineStr"/>
-      <c r="AE230" t="inlineStr">
-        <is>
-          <t>정B</t>
-        </is>
-      </c>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -24809,12 +23513,6 @@
           <t>정상</t>
         </is>
       </c>
-      <c r="AD231" t="inlineStr"/>
-      <c r="AE231" t="inlineStr">
-        <is>
-          <t>정B</t>
-        </is>
-      </c>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -24916,12 +23614,6 @@
           <t>정상</t>
         </is>
       </c>
-      <c r="AD232" t="inlineStr"/>
-      <c r="AE232" t="inlineStr">
-        <is>
-          <t>의심</t>
-        </is>
-      </c>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -25021,12 +23713,6 @@
       <c r="AC233" t="inlineStr">
         <is>
           <t>정상</t>
-        </is>
-      </c>
-      <c r="AD233" t="inlineStr"/>
-      <c r="AE233" t="inlineStr">
-        <is>
-          <t>의심</t>
         </is>
       </c>
     </row>
@@ -25122,12 +23808,6 @@
           <t>정상</t>
         </is>
       </c>
-      <c r="AD234" t="inlineStr"/>
-      <c r="AE234" t="inlineStr">
-        <is>
-          <t>정B</t>
-        </is>
-      </c>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -25221,12 +23901,6 @@
           <t>정상</t>
         </is>
       </c>
-      <c r="AD235" t="inlineStr"/>
-      <c r="AE235" t="inlineStr">
-        <is>
-          <t>의심</t>
-        </is>
-      </c>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -25320,12 +23994,6 @@
           <t>순환기계질환</t>
         </is>
       </c>
-      <c r="AD236" t="inlineStr"/>
-      <c r="AE236" t="inlineStr">
-        <is>
-          <t>의심</t>
-        </is>
-      </c>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -25410,7 +24078,9 @@
       <c r="X237" t="n">
         <v>0.7</v>
       </c>
-      <c r="Y237" t="inlineStr"/>
+      <c r="Y237" t="n">
+        <v>74</v>
+      </c>
       <c r="Z237" t="n">
         <v>19</v>
       </c>
@@ -25423,12 +24093,6 @@
       <c r="AC237" t="inlineStr">
         <is>
           <t>정상</t>
-        </is>
-      </c>
-      <c r="AD237" t="inlineStr"/>
-      <c r="AE237" t="inlineStr">
-        <is>
-          <t>정B</t>
         </is>
       </c>
     </row>
@@ -25532,12 +24196,6 @@
           <t>정상</t>
         </is>
       </c>
-      <c r="AD238" t="inlineStr"/>
-      <c r="AE238" t="inlineStr">
-        <is>
-          <t>정A</t>
-        </is>
-      </c>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -25639,12 +24297,6 @@
           <t>정상</t>
         </is>
       </c>
-      <c r="AD239" t="inlineStr"/>
-      <c r="AE239" t="inlineStr">
-        <is>
-          <t>정A</t>
-        </is>
-      </c>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -25746,12 +24398,6 @@
           <t>정상</t>
         </is>
       </c>
-      <c r="AD240" t="inlineStr"/>
-      <c r="AE240" t="inlineStr">
-        <is>
-          <t>정B</t>
-        </is>
-      </c>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -25853,12 +24499,6 @@
           <t>정상</t>
         </is>
       </c>
-      <c r="AD241" t="inlineStr"/>
-      <c r="AE241" t="inlineStr">
-        <is>
-          <t>정B</t>
-        </is>
-      </c>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -25960,12 +24600,6 @@
           <t>정상</t>
         </is>
       </c>
-      <c r="AD242" t="inlineStr"/>
-      <c r="AE242" t="inlineStr">
-        <is>
-          <t>정A</t>
-        </is>
-      </c>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -26067,12 +24701,6 @@
           <t>정상</t>
         </is>
       </c>
-      <c r="AD243" t="inlineStr"/>
-      <c r="AE243" t="inlineStr">
-        <is>
-          <t>정B</t>
-        </is>
-      </c>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -26172,12 +24800,6 @@
       <c r="AC244" t="inlineStr">
         <is>
           <t>정상</t>
-        </is>
-      </c>
-      <c r="AD244" t="inlineStr"/>
-      <c r="AE244" t="inlineStr">
-        <is>
-          <t>정B</t>
         </is>
       </c>
     </row>
@@ -26273,12 +24895,6 @@
           <t>정상</t>
         </is>
       </c>
-      <c r="AD245" t="inlineStr"/>
-      <c r="AE245" t="inlineStr">
-        <is>
-          <t>정A</t>
-        </is>
-      </c>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -26372,12 +24988,6 @@
           <t>정상</t>
         </is>
       </c>
-      <c r="AD246" t="inlineStr"/>
-      <c r="AE246" t="inlineStr">
-        <is>
-          <t>정B</t>
-        </is>
-      </c>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -26462,7 +25072,9 @@
       <c r="X247" t="n">
         <v>0.8</v>
       </c>
-      <c r="Y247" t="inlineStr"/>
+      <c r="Y247" t="n">
+        <v>91</v>
+      </c>
       <c r="Z247" t="n">
         <v>18</v>
       </c>
@@ -26475,12 +25087,6 @@
       <c r="AC247" t="inlineStr">
         <is>
           <t>순환기계질환</t>
-        </is>
-      </c>
-      <c r="AD247" t="inlineStr"/>
-      <c r="AE247" t="inlineStr">
-        <is>
-          <t>의심</t>
         </is>
       </c>
     </row>
@@ -26584,12 +25190,6 @@
           <t>순환기계질환</t>
         </is>
       </c>
-      <c r="AD248" t="inlineStr"/>
-      <c r="AE248" t="inlineStr">
-        <is>
-          <t>의심</t>
-        </is>
-      </c>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -26691,12 +25291,6 @@
           <t>순환기계질환</t>
         </is>
       </c>
-      <c r="AD249" t="inlineStr"/>
-      <c r="AE249" t="inlineStr">
-        <is>
-          <t>의심</t>
-        </is>
-      </c>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -26796,12 +25390,6 @@
       <c r="AC250" t="n">
         <v>12</v>
       </c>
-      <c r="AD250" t="inlineStr"/>
-      <c r="AE250" t="inlineStr">
-        <is>
-          <t>의심</t>
-        </is>
-      </c>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -26903,12 +25491,6 @@
           <t>순환기계질환</t>
         </is>
       </c>
-      <c r="AD251" t="inlineStr"/>
-      <c r="AE251" t="inlineStr">
-        <is>
-          <t>의심</t>
-        </is>
-      </c>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -27010,12 +25592,6 @@
           <t>순환기계질환</t>
         </is>
       </c>
-      <c r="AD252" t="inlineStr"/>
-      <c r="AE252" t="inlineStr">
-        <is>
-          <t>의심</t>
-        </is>
-      </c>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -27117,12 +25693,6 @@
           <t>순환기계질환</t>
         </is>
       </c>
-      <c r="AD253" t="inlineStr"/>
-      <c r="AE253" t="inlineStr">
-        <is>
-          <t>의심</t>
-        </is>
-      </c>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -27222,12 +25792,6 @@
       <c r="AC254" t="inlineStr">
         <is>
           <t>정상</t>
-        </is>
-      </c>
-      <c r="AD254" t="inlineStr"/>
-      <c r="AE254" t="inlineStr">
-        <is>
-          <t>정B</t>
         </is>
       </c>
     </row>
@@ -27323,12 +25887,6 @@
           <t>정상</t>
         </is>
       </c>
-      <c r="AD255" t="inlineStr"/>
-      <c r="AE255" t="inlineStr">
-        <is>
-          <t>정B</t>
-        </is>
-      </c>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -27420,12 +25978,6 @@
       <c r="AC256" t="n">
         <v>89</v>
       </c>
-      <c r="AD256" t="inlineStr"/>
-      <c r="AE256" t="inlineStr">
-        <is>
-          <t>의심</t>
-        </is>
-      </c>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -27510,7 +26062,9 @@
       <c r="X257" t="n">
         <v>1</v>
       </c>
-      <c r="Y257" t="inlineStr"/>
+      <c r="Y257" t="n">
+        <v>133</v>
+      </c>
       <c r="Z257" t="n">
         <v>15</v>
       </c>
@@ -27523,12 +26077,6 @@
       <c r="AC257" t="inlineStr">
         <is>
           <t>정상</t>
-        </is>
-      </c>
-      <c r="AD257" t="inlineStr"/>
-      <c r="AE257" t="inlineStr">
-        <is>
-          <t>정B</t>
         </is>
       </c>
     </row>
@@ -27632,12 +26180,6 @@
           <t>정상</t>
         </is>
       </c>
-      <c r="AD258" t="inlineStr"/>
-      <c r="AE258" t="inlineStr">
-        <is>
-          <t>정B</t>
-        </is>
-      </c>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -27739,12 +26281,6 @@
           <t>정상</t>
         </is>
       </c>
-      <c r="AD259" t="inlineStr"/>
-      <c r="AE259" t="inlineStr">
-        <is>
-          <t>정B</t>
-        </is>
-      </c>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -27846,12 +26382,6 @@
           <t>정상</t>
         </is>
       </c>
-      <c r="AD260" t="inlineStr"/>
-      <c r="AE260" t="inlineStr">
-        <is>
-          <t>정B</t>
-        </is>
-      </c>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -27953,12 +26483,6 @@
           <t>정상</t>
         </is>
       </c>
-      <c r="AD261" t="inlineStr"/>
-      <c r="AE261" t="inlineStr">
-        <is>
-          <t>정B</t>
-        </is>
-      </c>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -28060,12 +26584,6 @@
           <t>정상</t>
         </is>
       </c>
-      <c r="AD262" t="inlineStr"/>
-      <c r="AE262" t="inlineStr">
-        <is>
-          <t>정A</t>
-        </is>
-      </c>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -28165,12 +26683,6 @@
       <c r="AC263" t="inlineStr">
         <is>
           <t>정상</t>
-        </is>
-      </c>
-      <c r="AD263" t="inlineStr"/>
-      <c r="AE263" t="inlineStr">
-        <is>
-          <t>정B</t>
         </is>
       </c>
     </row>
@@ -28266,12 +26778,6 @@
           <t>정상</t>
         </is>
       </c>
-      <c r="AD264" t="inlineStr"/>
-      <c r="AE264" t="inlineStr">
-        <is>
-          <t>정A</t>
-        </is>
-      </c>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -28365,12 +26871,6 @@
           <t>정상</t>
         </is>
       </c>
-      <c r="AD265" t="inlineStr"/>
-      <c r="AE265" t="inlineStr">
-        <is>
-          <t>정B</t>
-        </is>
-      </c>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -28472,12 +26972,6 @@
           <t>정상</t>
         </is>
       </c>
-      <c r="AD266" t="inlineStr"/>
-      <c r="AE266" t="inlineStr">
-        <is>
-          <t>정B</t>
-        </is>
-      </c>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -28562,7 +27056,9 @@
       <c r="X267" t="n">
         <v>0.8</v>
       </c>
-      <c r="Y267" t="inlineStr"/>
+      <c r="Y267" t="n">
+        <v>81</v>
+      </c>
       <c r="Z267" t="n">
         <v>24</v>
       </c>
@@ -28575,12 +27071,6 @@
       <c r="AC267" t="inlineStr">
         <is>
           <t>정상</t>
-        </is>
-      </c>
-      <c r="AD267" t="inlineStr"/>
-      <c r="AE267" t="inlineStr">
-        <is>
-          <t>정A</t>
         </is>
       </c>
     </row>
@@ -28684,12 +27174,6 @@
           <t>정상</t>
         </is>
       </c>
-      <c r="AD268" t="inlineStr"/>
-      <c r="AE268" t="inlineStr">
-        <is>
-          <t>정A</t>
-        </is>
-      </c>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -28791,12 +27275,6 @@
           <t>정상</t>
         </is>
       </c>
-      <c r="AD269" t="inlineStr"/>
-      <c r="AE269" t="inlineStr">
-        <is>
-          <t>정A</t>
-        </is>
-      </c>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -28898,12 +27376,6 @@
           <t>정상</t>
         </is>
       </c>
-      <c r="AD270" t="inlineStr"/>
-      <c r="AE270" t="inlineStr">
-        <is>
-          <t>의심</t>
-        </is>
-      </c>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -29005,12 +27477,6 @@
           <t>정상</t>
         </is>
       </c>
-      <c r="AD271" t="inlineStr"/>
-      <c r="AE271" t="inlineStr">
-        <is>
-          <t>정B</t>
-        </is>
-      </c>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -29112,12 +27578,6 @@
           <t>정상</t>
         </is>
       </c>
-      <c r="AD272" t="inlineStr"/>
-      <c r="AE272" t="inlineStr">
-        <is>
-          <t>정A</t>
-        </is>
-      </c>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -29217,12 +27677,6 @@
       <c r="AC273" t="inlineStr">
         <is>
           <t>정상</t>
-        </is>
-      </c>
-      <c r="AD273" t="inlineStr"/>
-      <c r="AE273" t="inlineStr">
-        <is>
-          <t>정B</t>
         </is>
       </c>
     </row>
@@ -29318,12 +27772,6 @@
           <t>정상</t>
         </is>
       </c>
-      <c r="AD274" t="inlineStr"/>
-      <c r="AE274" t="inlineStr">
-        <is>
-          <t>정A</t>
-        </is>
-      </c>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -29417,12 +27865,6 @@
           <t>정상</t>
         </is>
       </c>
-      <c r="AD275" t="inlineStr"/>
-      <c r="AE275" t="inlineStr">
-        <is>
-          <t>의심</t>
-        </is>
-      </c>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -29516,12 +27958,6 @@
           <t>정상</t>
         </is>
       </c>
-      <c r="AD276" t="inlineStr"/>
-      <c r="AE276" t="inlineStr">
-        <is>
-          <t>정A</t>
-        </is>
-      </c>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
@@ -29606,7 +28042,9 @@
       <c r="X277" t="n">
         <v>0.7</v>
       </c>
-      <c r="Y277" t="inlineStr"/>
+      <c r="Y277" t="n">
+        <v>74</v>
+      </c>
       <c r="Z277" t="n">
         <v>18</v>
       </c>
@@ -29619,12 +28057,6 @@
       <c r="AC277" t="inlineStr">
         <is>
           <t>정상</t>
-        </is>
-      </c>
-      <c r="AD277" t="inlineStr"/>
-      <c r="AE277" t="inlineStr">
-        <is>
-          <t>의심</t>
         </is>
       </c>
     </row>
@@ -29728,12 +28160,6 @@
           <t>정상</t>
         </is>
       </c>
-      <c r="AD278" t="inlineStr"/>
-      <c r="AE278" t="inlineStr">
-        <is>
-          <t>정A</t>
-        </is>
-      </c>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
@@ -29835,12 +28261,6 @@
           <t>정상</t>
         </is>
       </c>
-      <c r="AD279" t="inlineStr"/>
-      <c r="AE279" t="inlineStr">
-        <is>
-          <t>정B</t>
-        </is>
-      </c>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
@@ -29942,12 +28362,6 @@
           <t>정상</t>
         </is>
       </c>
-      <c r="AD280" t="inlineStr"/>
-      <c r="AE280" t="inlineStr">
-        <is>
-          <t>정B</t>
-        </is>
-      </c>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
@@ -30049,12 +28463,6 @@
           <t>정상</t>
         </is>
       </c>
-      <c r="AD281" t="inlineStr"/>
-      <c r="AE281" t="inlineStr">
-        <is>
-          <t>정B</t>
-        </is>
-      </c>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
@@ -30156,12 +28564,6 @@
           <t>정상</t>
         </is>
       </c>
-      <c r="AD282" t="inlineStr"/>
-      <c r="AE282" t="inlineStr">
-        <is>
-          <t>정A</t>
-        </is>
-      </c>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
@@ -30263,12 +28665,6 @@
           <t>비결핵성질환</t>
         </is>
       </c>
-      <c r="AD283" t="inlineStr"/>
-      <c r="AE283" t="inlineStr">
-        <is>
-          <t>의심</t>
-        </is>
-      </c>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
@@ -30368,12 +28764,6 @@
       <c r="AC284" t="inlineStr">
         <is>
           <t>정상</t>
-        </is>
-      </c>
-      <c r="AD284" t="inlineStr"/>
-      <c r="AE284" t="inlineStr">
-        <is>
-          <t>정B</t>
         </is>
       </c>
     </row>
@@ -30469,12 +28859,6 @@
           <t>비결핵성질환</t>
         </is>
       </c>
-      <c r="AD285" t="inlineStr"/>
-      <c r="AE285" t="inlineStr">
-        <is>
-          <t>의심</t>
-        </is>
-      </c>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
@@ -30568,12 +28952,6 @@
           <t>정상</t>
         </is>
       </c>
-      <c r="AD286" t="inlineStr"/>
-      <c r="AE286" t="inlineStr">
-        <is>
-          <t>정B</t>
-        </is>
-      </c>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
@@ -30658,7 +29036,9 @@
       <c r="X287" t="n">
         <v>0.7</v>
       </c>
-      <c r="Y287" t="inlineStr"/>
+      <c r="Y287" t="n">
+        <v>58</v>
+      </c>
       <c r="Z287" t="n">
         <v>27</v>
       </c>
@@ -30671,12 +29051,6 @@
       <c r="AC287" t="inlineStr">
         <is>
           <t>정상</t>
-        </is>
-      </c>
-      <c r="AD287" t="inlineStr"/>
-      <c r="AE287" t="inlineStr">
-        <is>
-          <t>정B</t>
         </is>
       </c>
     </row>
@@ -30780,12 +29154,6 @@
           <t>정상</t>
         </is>
       </c>
-      <c r="AD288" t="inlineStr"/>
-      <c r="AE288" t="inlineStr">
-        <is>
-          <t>정A</t>
-        </is>
-      </c>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
@@ -30887,12 +29255,6 @@
           <t>정상</t>
         </is>
       </c>
-      <c r="AD289" t="inlineStr"/>
-      <c r="AE289" t="inlineStr">
-        <is>
-          <t>정B</t>
-        </is>
-      </c>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
@@ -30994,12 +29356,6 @@
           <t>정상</t>
         </is>
       </c>
-      <c r="AD290" t="inlineStr"/>
-      <c r="AE290" t="inlineStr">
-        <is>
-          <t>정B</t>
-        </is>
-      </c>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
@@ -31101,12 +29457,6 @@
           <t>정상</t>
         </is>
       </c>
-      <c r="AD291" t="inlineStr"/>
-      <c r="AE291" t="inlineStr">
-        <is>
-          <t>의심</t>
-        </is>
-      </c>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
@@ -31208,12 +29558,6 @@
           <t>정상</t>
         </is>
       </c>
-      <c r="AD292" t="inlineStr"/>
-      <c r="AE292" t="inlineStr">
-        <is>
-          <t>의심</t>
-        </is>
-      </c>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
@@ -31313,12 +29657,6 @@
       <c r="AC293" t="inlineStr">
         <is>
           <t>정상</t>
-        </is>
-      </c>
-      <c r="AD293" t="inlineStr"/>
-      <c r="AE293" t="inlineStr">
-        <is>
-          <t>정B</t>
         </is>
       </c>
     </row>
@@ -31414,12 +29752,6 @@
           <t>정상</t>
         </is>
       </c>
-      <c r="AD294" t="inlineStr"/>
-      <c r="AE294" t="inlineStr">
-        <is>
-          <t>정B</t>
-        </is>
-      </c>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
@@ -31513,12 +29845,6 @@
           <t>정상</t>
         </is>
       </c>
-      <c r="AD295" t="inlineStr"/>
-      <c r="AE295" t="inlineStr">
-        <is>
-          <t>유질</t>
-        </is>
-      </c>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
@@ -31620,12 +29946,6 @@
           <t>정상</t>
         </is>
       </c>
-      <c r="AD296" t="inlineStr"/>
-      <c r="AE296" t="inlineStr">
-        <is>
-          <t>정B</t>
-        </is>
-      </c>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
@@ -31710,7 +30030,9 @@
       <c r="X297" t="n">
         <v>0.7</v>
       </c>
-      <c r="Y297" t="inlineStr"/>
+      <c r="Y297" t="n">
+        <v>80</v>
+      </c>
       <c r="Z297" t="n">
         <v>17</v>
       </c>
@@ -31723,12 +30045,6 @@
       <c r="AC297" t="inlineStr">
         <is>
           <t>정상</t>
-        </is>
-      </c>
-      <c r="AD297" t="inlineStr"/>
-      <c r="AE297" t="inlineStr">
-        <is>
-          <t>정B</t>
         </is>
       </c>
     </row>
@@ -31832,12 +30148,6 @@
           <t>정상</t>
         </is>
       </c>
-      <c r="AD298" t="inlineStr"/>
-      <c r="AE298" t="inlineStr">
-        <is>
-          <t>정B</t>
-        </is>
-      </c>
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
@@ -31939,12 +30249,6 @@
           <t>정상</t>
         </is>
       </c>
-      <c r="AD299" t="inlineStr"/>
-      <c r="AE299" t="inlineStr">
-        <is>
-          <t>정B</t>
-        </is>
-      </c>
     </row>
     <row r="300">
       <c r="A300" s="1" t="n">
@@ -32046,12 +30350,6 @@
           <t>정상</t>
         </is>
       </c>
-      <c r="AD300" t="inlineStr"/>
-      <c r="AE300" t="inlineStr">
-        <is>
-          <t>정B</t>
-        </is>
-      </c>
     </row>
     <row r="301">
       <c r="A301" s="1" t="n">
@@ -32153,12 +30451,6 @@
           <t>정상</t>
         </is>
       </c>
-      <c r="AD301" t="inlineStr"/>
-      <c r="AE301" t="inlineStr">
-        <is>
-          <t>정B</t>
-        </is>
-      </c>
     </row>
     <row r="302">
       <c r="A302" s="1" t="n">
@@ -32260,12 +30552,6 @@
           <t>정상</t>
         </is>
       </c>
-      <c r="AD302" t="inlineStr"/>
-      <c r="AE302" t="inlineStr">
-        <is>
-          <t>정B</t>
-        </is>
-      </c>
     </row>
     <row r="303">
       <c r="A303" s="1" t="n">
@@ -32365,12 +30651,6 @@
       <c r="AC303" t="inlineStr">
         <is>
           <t>정상</t>
-        </is>
-      </c>
-      <c r="AD303" t="inlineStr"/>
-      <c r="AE303" t="inlineStr">
-        <is>
-          <t>정B</t>
         </is>
       </c>
     </row>
@@ -32466,12 +30746,6 @@
           <t>정상</t>
         </is>
       </c>
-      <c r="AD304" t="inlineStr"/>
-      <c r="AE304" t="inlineStr">
-        <is>
-          <t>정A</t>
-        </is>
-      </c>
     </row>
     <row r="305">
       <c r="A305" s="1" t="n">
@@ -32571,12 +30845,6 @@
       <c r="AC305" t="inlineStr">
         <is>
           <t>정상</t>
-        </is>
-      </c>
-      <c r="AD305" t="inlineStr"/>
-      <c r="AE305" t="inlineStr">
-        <is>
-          <t>정B</t>
         </is>
       </c>
     </row>
@@ -32672,12 +30940,6 @@
           <t>정상</t>
         </is>
       </c>
-      <c r="AD306" t="inlineStr"/>
-      <c r="AE306" t="inlineStr">
-        <is>
-          <t>정A</t>
-        </is>
-      </c>
     </row>
     <row r="307">
       <c r="A307" s="1" t="n">
@@ -32762,7 +31024,9 @@
       <c r="X307" t="n">
         <v>0.7</v>
       </c>
-      <c r="Y307" t="inlineStr"/>
+      <c r="Y307" t="n">
+        <v>87</v>
+      </c>
       <c r="Z307" t="n">
         <v>15</v>
       </c>
@@ -32775,12 +31039,6 @@
       <c r="AC307" t="inlineStr">
         <is>
           <t>정상</t>
-        </is>
-      </c>
-      <c r="AD307" t="inlineStr"/>
-      <c r="AE307" t="inlineStr">
-        <is>
-          <t>정A</t>
         </is>
       </c>
     </row>
@@ -32880,12 +31138,6 @@
           <t>정상</t>
         </is>
       </c>
-      <c r="AD308" t="inlineStr"/>
-      <c r="AE308" t="inlineStr">
-        <is>
-          <t>정A</t>
-        </is>
-      </c>
     </row>
     <row r="309">
       <c r="A309" s="1" t="n">
@@ -32987,12 +31239,6 @@
           <t>정상</t>
         </is>
       </c>
-      <c r="AD309" t="inlineStr"/>
-      <c r="AE309" t="inlineStr">
-        <is>
-          <t>정A</t>
-        </is>
-      </c>
     </row>
     <row r="310">
       <c r="A310" s="1" t="n">
@@ -33094,12 +31340,6 @@
           <t>정상</t>
         </is>
       </c>
-      <c r="AD310" t="inlineStr"/>
-      <c r="AE310" t="inlineStr">
-        <is>
-          <t>정A</t>
-        </is>
-      </c>
     </row>
     <row r="311">
       <c r="A311" s="1" t="n">
@@ -33201,12 +31441,6 @@
           <t>정상</t>
         </is>
       </c>
-      <c r="AD311" t="inlineStr"/>
-      <c r="AE311" t="inlineStr">
-        <is>
-          <t>정A</t>
-        </is>
-      </c>
     </row>
     <row r="312">
       <c r="A312" s="1" t="n">
@@ -33308,12 +31542,6 @@
           <t>정상</t>
         </is>
       </c>
-      <c r="AD312" t="inlineStr"/>
-      <c r="AE312" t="inlineStr">
-        <is>
-          <t>정A</t>
-        </is>
-      </c>
     </row>
     <row r="313">
       <c r="A313" s="1" t="n">
@@ -33413,12 +31641,6 @@
       <c r="AC313" t="inlineStr">
         <is>
           <t>정상</t>
-        </is>
-      </c>
-      <c r="AD313" t="inlineStr"/>
-      <c r="AE313" t="inlineStr">
-        <is>
-          <t>정A</t>
         </is>
       </c>
     </row>
@@ -33514,12 +31736,6 @@
           <t>정상</t>
         </is>
       </c>
-      <c r="AD314" t="inlineStr"/>
-      <c r="AE314" t="inlineStr">
-        <is>
-          <t>정A</t>
-        </is>
-      </c>
     </row>
     <row r="315">
       <c r="A315" s="1" t="n">
@@ -33611,12 +31827,6 @@
           <t>미촬영</t>
         </is>
       </c>
-      <c r="AD315" t="inlineStr"/>
-      <c r="AE315" t="inlineStr">
-        <is>
-          <t>정B</t>
-        </is>
-      </c>
     </row>
     <row r="316">
       <c r="A316" s="1" t="n">
@@ -33710,12 +31920,6 @@
           <t>정상</t>
         </is>
       </c>
-      <c r="AD316" t="inlineStr"/>
-      <c r="AE316" t="inlineStr">
-        <is>
-          <t>정B</t>
-        </is>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
